--- a/w1/SC2x_W1L2_FacilityLocationv1.xlsx
+++ b/w1/SC2x_W1L2_FacilityLocationv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/caroline_c_barbosa_accenture_com/Documents/Desktop/06_cursos/SCM/SC2x/w1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1436" documentId="13_ncr:1_{BEE4ED07-EA1E-4140-BC1D-06886507852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DE63836-D3F3-4D19-ABB3-BD0AE23B6707}"/>
+  <xr:revisionPtr revIDLastSave="1758" documentId="13_ncr:1_{BEE4ED07-EA1E-4140-BC1D-06886507852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87B43E73-3ACC-42C2-984F-1C1EBDDBE747}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23304" windowHeight="12360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NERD1_CoG_Weber" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
@@ -80,6 +81,7 @@
     <definedName name="solver_num" localSheetId="2" hidden="1">8</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">NERD1_CoG_Weber!$F$7</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">NERD2_MILP!$B$3</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">NERD3_MILP!$B$3</definedName>
@@ -122,7 +124,7 @@
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs6" localSheetId="2" hidden="1">NERD3_MILP!$BR$97</definedName>
     <definedName name="solver_rhs7" localSheetId="2" hidden="1">NERD3_MILP!$BR$98</definedName>
-    <definedName name="solver_rhs8" localSheetId="2" hidden="1">binary</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">"binary"</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
@@ -152,7 +154,7 @@
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -11829,11 +11831,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BW98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="BP98" sqref="BP98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12363,7 +12365,7 @@
       </c>
       <c r="B3" s="55">
         <f>SUMPRODUCT(C5:BO5,C6:BO6)</f>
-        <v>66781.000000000015</v>
+        <v>66781</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -12648,22 +12650,22 @@
         <v>0</v>
       </c>
       <c r="H5" s="65">
-        <v>424.99999999999989</v>
+        <v>424.99999999999994</v>
       </c>
       <c r="I5" s="66">
         <v>0</v>
       </c>
       <c r="J5" s="66">
-        <v>1.4210854715202004E-14</v>
+        <v>0</v>
       </c>
       <c r="K5" s="66">
         <v>0</v>
       </c>
       <c r="L5" s="66">
-        <v>5.6843418860808015E-14</v>
+        <v>0</v>
       </c>
       <c r="M5" s="66">
-        <v>4.2632564145606011E-14</v>
+        <v>0</v>
       </c>
       <c r="N5" s="66">
         <v>0</v>
@@ -12672,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="66">
-        <v>7.1054273576010019E-15</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="66">
-        <v>3.4106051316484799E-13</v>
+        <v>0</v>
       </c>
       <c r="R5" s="66">
         <v>0</v>
@@ -12687,19 +12689,19 @@
         <v>0</v>
       </c>
       <c r="U5" s="66">
-        <v>8.8817841970012523E-16</v>
+        <v>0</v>
       </c>
       <c r="V5" s="66">
-        <v>42.999999999999972</v>
+        <v>43.000000000000064</v>
       </c>
       <c r="W5" s="66">
         <v>0</v>
       </c>
       <c r="X5" s="66">
-        <v>109.99999999999994</v>
+        <v>110.00000000000013</v>
       </c>
       <c r="Y5" s="66">
-        <v>85.999999999999943</v>
+        <v>86.000000000000128</v>
       </c>
       <c r="Z5" s="66">
         <v>0</v>
@@ -12708,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="66">
-        <v>65.999999999999972</v>
+        <v>66.000000000000085</v>
       </c>
       <c r="AC5" s="66">
         <v>0</v>
@@ -12738,16 +12740,16 @@
         <v>0</v>
       </c>
       <c r="AL5" s="66">
-        <v>2.4773833778064226E-14</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="66">
-        <v>5.3290705182007514E-15</v>
+        <v>1.8962609260597662E-14</v>
       </c>
       <c r="AN5" s="66">
         <v>0</v>
       </c>
       <c r="AO5" s="66">
-        <v>319.99999999999983</v>
+        <v>320.00000000000006</v>
       </c>
       <c r="AP5" s="66">
         <v>0</v>
@@ -12759,13 +12761,13 @@
         <v>0</v>
       </c>
       <c r="AS5" s="66">
-        <v>11.999999999999996</v>
+        <v>11.999999999999998</v>
       </c>
       <c r="AT5" s="66">
         <v>0</v>
       </c>
       <c r="AU5" s="66">
-        <v>125.00000000000001</v>
+        <v>124.99999999999996</v>
       </c>
       <c r="AV5" s="66">
         <v>0</v>
@@ -12774,10 +12776,10 @@
         <v>0</v>
       </c>
       <c r="AX5" s="66">
-        <v>128.99999999999994</v>
+        <v>129.00000000000003</v>
       </c>
       <c r="AY5" s="66">
-        <v>27.999999999999993</v>
+        <v>27.999999999999986</v>
       </c>
       <c r="AZ5" s="66">
         <v>0</v>
@@ -12786,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="66">
-        <v>220.00000000000006</v>
+        <v>219.99999999999994</v>
       </c>
       <c r="BC5" s="68">
         <v>0</v>
@@ -12801,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="66">
-        <v>0</v>
+        <v>2.914335439641034E-14</v>
       </c>
       <c r="BH5" s="66">
         <v>0</v>
@@ -12822,10 +12824,10 @@
         <v>0</v>
       </c>
       <c r="BN5" s="66">
-        <v>0</v>
+        <v>2.1982415887578096E-14</v>
       </c>
       <c r="BO5" s="68">
-        <v>3.2329694477084538E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:75" s="49" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -13644,7 +13646,7 @@
       <c r="BO10" s="105"/>
       <c r="BP10" s="107">
         <f>SUMPRODUCT($C$5:$BO$5,C10:BO10)</f>
-        <v>607.00000000000034</v>
+        <v>606.99999999999989</v>
       </c>
       <c r="BQ10" s="101" t="s">
         <v>93</v>
@@ -13654,7 +13656,7 @@
       </c>
       <c r="BV10" s="108">
         <f>B3</f>
-        <v>66781.000000000015</v>
+        <v>66781</v>
       </c>
     </row>
     <row r="11" spans="1:75" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -13753,7 +13755,7 @@
       <c r="BO11" s="105"/>
       <c r="BP11" s="107">
         <f t="shared" ref="BP11:BP14" si="3">SUMPRODUCT($C$5:$BO$5,C11:BO11)</f>
-        <v>304.99999999999983</v>
+        <v>305.00000000000045</v>
       </c>
       <c r="BQ11" s="101" t="s">
         <v>93</v>
@@ -13865,7 +13867,7 @@
       <c r="BO12" s="105"/>
       <c r="BP12" s="107">
         <f t="shared" si="3"/>
-        <v>319.99999999999989</v>
+        <v>320.00000000000006</v>
       </c>
       <c r="BQ12" s="101" t="s">
         <v>93</v>
@@ -13878,7 +13880,7 @@
       </c>
       <c r="BV12" s="109">
         <f>SUMPRODUCT(H5:BO5,H7:BO7)/SUM(BR17:BR28)</f>
-        <v>15.338487972508599</v>
+        <v>15.338487972508597</v>
       </c>
     </row>
     <row r="13" spans="1:75" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -14085,7 +14087,7 @@
       </c>
       <c r="BP14" s="122">
         <f t="shared" si="3"/>
-        <v>3.2329694477084538E-14</v>
+        <v>5.1125770283988433E-14</v>
       </c>
       <c r="BQ14" s="116" t="s">
         <v>93</v>
@@ -14098,11 +14100,11 @@
       </c>
       <c r="BV14" s="123">
         <f>BW14/$BW$19</f>
-        <v>0.66494845360824717</v>
+        <v>0.6649484536082475</v>
       </c>
       <c r="BW14" s="49">
         <f>SUMIF($H$6:$BO$6,"&lt;="&amp;BU14,$H$5:$BO$5)</f>
-        <v>1160.9999999999995</v>
+        <v>1161.0000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:75" s="49" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -14181,11 +14183,11 @@
       </c>
       <c r="BV15" s="123">
         <f>BW15/$BW$19-SUM($BV$14:BV14)</f>
-        <v>0.23825887743413543</v>
+        <v>0.23825887743413532</v>
       </c>
       <c r="BW15" s="49">
         <f t="shared" ref="BW15:BW18" si="4">SUMIF($H$6:$BO$6,"&lt;="&amp;BU15,$H$5:$BO$5)</f>
-        <v>1577</v>
+        <v>1577.0000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:75" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -14270,7 +14272,7 @@
       </c>
       <c r="BW16" s="49">
         <f t="shared" si="4"/>
-        <v>1746</v>
+        <v>1746.0000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:75" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -14355,7 +14357,7 @@
       <c r="BO17" s="102"/>
       <c r="BP17" s="100">
         <f t="shared" ref="BP17:BP83" si="5">SUMPRODUCT($C$5:$BO$5,C17:BO17)</f>
-        <v>424.99999999999989</v>
+        <v>424.99999999999994</v>
       </c>
       <c r="BQ17" s="101" t="s">
         <v>98</v>
@@ -14372,7 +14374,7 @@
       </c>
       <c r="BW17" s="49">
         <f t="shared" si="4"/>
-        <v>1746</v>
+        <v>1746.0000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:75" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -14457,7 +14459,7 @@
       <c r="BO18" s="102"/>
       <c r="BP18" s="100">
         <f t="shared" si="5"/>
-        <v>11.999999999999996</v>
+        <v>11.999999999999998</v>
       </c>
       <c r="BQ18" s="101" t="s">
         <v>98</v>
@@ -14474,7 +14476,7 @@
       </c>
       <c r="BW18" s="49">
         <f t="shared" si="4"/>
-        <v>1746</v>
+        <v>1746.0000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:75" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -14559,7 +14561,7 @@
       <c r="BO19" s="102"/>
       <c r="BP19" s="100">
         <f t="shared" si="5"/>
-        <v>42.999999999999986</v>
+        <v>43.000000000000064</v>
       </c>
       <c r="BQ19" s="101" t="s">
         <v>98</v>
@@ -14655,7 +14657,7 @@
       <c r="BO20" s="102"/>
       <c r="BP20" s="100">
         <f t="shared" si="5"/>
-        <v>125.00000000000001</v>
+        <v>124.99999999999999</v>
       </c>
       <c r="BQ20" s="101" t="s">
         <v>98</v>
@@ -14746,7 +14748,7 @@
       <c r="BO21" s="102"/>
       <c r="BP21" s="100">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>110.00000000000013</v>
       </c>
       <c r="BQ21" s="101" t="s">
         <v>98</v>
@@ -14759,7 +14761,7 @@
       </c>
       <c r="BV21" s="129">
         <f>SUM(H5:S5)</f>
-        <v>607.00000000000034</v>
+        <v>606.99999999999989</v>
       </c>
     </row>
     <row r="22" spans="1:75" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -14844,7 +14846,7 @@
       <c r="BO22" s="102"/>
       <c r="BP22" s="100">
         <f t="shared" si="5"/>
-        <v>85.999999999999986</v>
+        <v>86.000000000000128</v>
       </c>
       <c r="BQ22" s="101" t="s">
         <v>98</v>
@@ -14857,7 +14859,7 @@
       </c>
       <c r="BV22" s="129">
         <f>SUM(BD5:BO5)</f>
-        <v>3.2329694477084538E-14</v>
+        <v>5.1125770283988433E-14</v>
       </c>
     </row>
     <row r="23" spans="1:75" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -14942,7 +14944,7 @@
       <c r="BO23" s="102"/>
       <c r="BP23" s="100">
         <f t="shared" si="5"/>
-        <v>128.99999999999997</v>
+        <v>129.00000000000003</v>
       </c>
       <c r="BQ23" s="101" t="s">
         <v>98</v>
@@ -15040,7 +15042,7 @@
       <c r="BO24" s="102"/>
       <c r="BP24" s="100">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="BQ24" s="101" t="s">
         <v>98</v>
@@ -15053,7 +15055,7 @@
       </c>
       <c r="BV24" s="129">
         <f>SUM(AF5:AQ5)</f>
-        <v>319.99999999999989</v>
+        <v>320.00000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:75" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -15138,7 +15140,7 @@
       <c r="BO25" s="102"/>
       <c r="BP25" s="100">
         <f t="shared" si="5"/>
-        <v>65.999999999999972</v>
+        <v>66.000000000000085</v>
       </c>
       <c r="BQ25" s="101" t="s">
         <v>98</v>
@@ -15151,7 +15153,7 @@
       </c>
       <c r="BV25" s="129">
         <f>SUM(T5:AE5)</f>
-        <v>304.99999999999983</v>
+        <v>305.00000000000045</v>
       </c>
     </row>
     <row r="26" spans="1:75" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -15236,7 +15238,7 @@
       <c r="BO26" s="102"/>
       <c r="BP26" s="100">
         <f t="shared" si="5"/>
-        <v>320.00000000000017</v>
+        <v>320.00000000000006</v>
       </c>
       <c r="BQ26" s="101" t="s">
         <v>98</v>
@@ -15327,7 +15329,7 @@
       <c r="BO27" s="102"/>
       <c r="BP27" s="100">
         <f t="shared" si="5"/>
-        <v>220.00000000000006</v>
+        <v>219.99999999999997</v>
       </c>
       <c r="BQ27" s="101" t="s">
         <v>98</v>
@@ -15418,7 +15420,7 @@
       </c>
       <c r="BP28" s="115">
         <f t="shared" si="5"/>
-        <v>182</v>
+        <v>181.99999999999997</v>
       </c>
       <c r="BQ28" s="116" t="s">
         <v>98</v>
@@ -15982,7 +15984,7 @@
       <c r="BO35" s="89"/>
       <c r="BP35" s="146">
         <f t="shared" si="5"/>
-        <v>-1.1368683772161603E-13</v>
+        <v>-5.6843418860808015E-14</v>
       </c>
       <c r="BQ35" s="147" t="s">
         <v>93</v>
@@ -16154,7 +16156,7 @@
       <c r="BO37" s="99"/>
       <c r="BP37" s="152">
         <f t="shared" si="5"/>
-        <v>-42.999999999999986</v>
+        <v>-43</v>
       </c>
       <c r="BQ37" s="153" t="s">
         <v>93</v>
@@ -16326,7 +16328,7 @@
       <c r="BO39" s="99"/>
       <c r="BP39" s="152">
         <f t="shared" si="5"/>
-        <v>-109.99999999999994</v>
+        <v>-110</v>
       </c>
       <c r="BQ39" s="153" t="s">
         <v>93</v>
@@ -16412,7 +16414,7 @@
       <c r="BO40" s="99"/>
       <c r="BP40" s="152">
         <f t="shared" si="5"/>
-        <v>-85.999999999999957</v>
+        <v>-86</v>
       </c>
       <c r="BQ40" s="153" t="s">
         <v>93</v>
@@ -16756,7 +16758,7 @@
       <c r="BO44" s="99"/>
       <c r="BP44" s="152">
         <f t="shared" si="5"/>
-        <v>-319.99999999999966</v>
+        <v>-320</v>
       </c>
       <c r="BQ44" s="153" t="s">
         <v>93</v>
@@ -17186,7 +17188,7 @@
       <c r="BO49" s="99"/>
       <c r="BP49" s="152">
         <f t="shared" si="5"/>
-        <v>-2.8421709430404007E-14</v>
+        <v>6.3948846218409017E-14</v>
       </c>
       <c r="BQ49" s="153" t="s">
         <v>93</v>
@@ -17358,7 +17360,7 @@
       <c r="BO51" s="99"/>
       <c r="BP51" s="152">
         <f t="shared" si="5"/>
-        <v>-5.6843418860808015E-14</v>
+        <v>1.2789769243681803E-13</v>
       </c>
       <c r="BQ51" s="153" t="s">
         <v>93</v>
@@ -17444,7 +17446,7 @@
       <c r="BO52" s="99"/>
       <c r="BP52" s="152">
         <f t="shared" si="5"/>
-        <v>-5.6843418860808015E-14</v>
+        <v>1.2789769243681803E-13</v>
       </c>
       <c r="BQ52" s="153" t="s">
         <v>93</v>
@@ -17702,7 +17704,7 @@
       <c r="BO55" s="99"/>
       <c r="BP55" s="152">
         <f t="shared" si="5"/>
-        <v>-2.8421709430404007E-14</v>
+        <v>8.5265128291212022E-14</v>
       </c>
       <c r="BQ55" s="153" t="s">
         <v>93</v>
@@ -18562,7 +18564,7 @@
       <c r="BO65" s="99"/>
       <c r="BP65" s="152">
         <f t="shared" si="5"/>
-        <v>-128.99999999999997</v>
+        <v>-129</v>
       </c>
       <c r="BQ65" s="153" t="s">
         <v>93</v>
@@ -18648,7 +18650,7 @@
       <c r="BO66" s="99"/>
       <c r="BP66" s="152">
         <f t="shared" si="5"/>
-        <v>-27.999999999999993</v>
+        <v>-27.999999999999982</v>
       </c>
       <c r="BQ66" s="153" t="s">
         <v>93</v>
@@ -18820,7 +18822,7 @@
       <c r="BO68" s="99"/>
       <c r="BP68" s="152">
         <f t="shared" si="5"/>
-        <v>-1.7053025658242404E-13</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="BQ68" s="153" t="s">
         <v>93</v>
@@ -19164,7 +19166,7 @@
       <c r="BO72" s="99"/>
       <c r="BP72" s="152">
         <f t="shared" si="5"/>
-        <v>-3.5527136788005009E-15</v>
+        <v>-1.7763568394002505E-15</v>
       </c>
       <c r="BQ72" s="153" t="s">
         <v>93</v>
@@ -19336,7 +19338,7 @@
       <c r="BO74" s="99"/>
       <c r="BP74" s="152">
         <f t="shared" si="5"/>
-        <v>1.4210854715202004E-14</v>
+        <v>-4.2632564145606011E-14</v>
       </c>
       <c r="BQ74" s="153" t="s">
         <v>93</v>
@@ -19594,7 +19596,7 @@
       <c r="BO77" s="99"/>
       <c r="BP77" s="152">
         <f t="shared" si="5"/>
-        <v>-5.6843418860808015E-14</v>
+        <v>2.8421709430404007E-14</v>
       </c>
       <c r="BQ77" s="153" t="s">
         <v>93</v>
@@ -19680,7 +19682,7 @@
       <c r="BO78" s="99"/>
       <c r="BP78" s="152">
         <f t="shared" si="5"/>
-        <v>-7.1054273576010019E-15</v>
+        <v>-1.4210854715202004E-14</v>
       </c>
       <c r="BQ78" s="153" t="s">
         <v>93</v>
@@ -19938,7 +19940,7 @@
       <c r="BO81" s="99"/>
       <c r="BP81" s="152">
         <f t="shared" si="5"/>
-        <v>5.6843418860808015E-14</v>
+        <v>-5.6843418860808015E-14</v>
       </c>
       <c r="BQ81" s="153" t="s">
         <v>93</v>
@@ -20368,7 +20370,7 @@
       <c r="BO86" s="102"/>
       <c r="BP86" s="152">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.914335439641034E-14</v>
       </c>
       <c r="BQ86" s="153" t="s">
         <v>93</v>
@@ -20970,7 +20972,7 @@
       <c r="BO93" s="102"/>
       <c r="BP93" s="152">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.1982415887578096E-14</v>
       </c>
       <c r="BQ93" s="153" t="s">
         <v>93</v>
@@ -21056,7 +21058,7 @@
       </c>
       <c r="BP94" s="160">
         <f t="shared" si="11"/>
-        <v>3.2329694477084538E-14</v>
+        <v>0</v>
       </c>
       <c r="BQ94" s="161" t="s">
         <v>93</v>
@@ -21462,7 +21464,7 @@
       </c>
       <c r="BP97" s="174">
         <f t="shared" ref="BP97:BP98" si="13">SUMPRODUCT($C$5:$BO$5,C97:BO97)</f>
-        <v>15.338487972508599</v>
+        <v>15.338487972508597</v>
       </c>
       <c r="BQ97" s="136" t="s">
         <v>93</v>
@@ -21723,7 +21725,7 @@
       </c>
       <c r="BP98" s="177">
         <f t="shared" si="13"/>
-        <v>0.90320733104238271</v>
+        <v>0.90320733104238282</v>
       </c>
       <c r="BQ98" s="136" t="s">
         <v>98</v>

--- a/w1/SC2x_W1L2_FacilityLocationv1.xlsx
+++ b/w1/SC2x_W1L2_FacilityLocationv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/caroline_c_barbosa_accenture_com/Documents/Desktop/06_cursos/SCM/SC2x/w1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1758" documentId="13_ncr:1_{BEE4ED07-EA1E-4140-BC1D-06886507852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87B43E73-3ACC-42C2-984F-1C1EBDDBE747}"/>
+  <xr:revisionPtr revIDLastSave="2098" documentId="13_ncr:1_{BEE4ED07-EA1E-4140-BC1D-06886507852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F8E2669-C661-4E80-9C73-938C5959A1B3}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13236" yWindow="2064" windowWidth="17484" windowHeight="10296" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NERD1_CoG_Weber" sheetId="1" r:id="rId1"/>
@@ -2225,7 +2225,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2460,7 +2460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BW98"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -11831,7 +11831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BW98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
